--- a/Snek Cost.xlsx
+++ b/Snek Cost.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Snek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Snek\SNEK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B47E6AB7-2F8A-4973-8CF3-37B3831909B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A67B80E4-9B50-4C24-BEE7-7CE37253FBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4FDD917-7C0B-4D33-9BDA-4804BDAA3F07}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B4FDD917-7C0B-4D33-9BDA-4804BDAA3F07}"/>
   </bookViews>
   <sheets>
     <sheet name="Amazon" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="All Vendor Total" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -534,7 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B70BBB7-74FC-43DC-BF63-D7575D5088A3}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -710,7 +711,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" tooltip="https://www.amazon.com/TROOPS-BBQ-Lazy-Susan-Turntable/dp/B06ZYWSKQW/ref=asc_df_B06ZYWSKQW/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=216558267793&amp;hvpos=&amp;hvnetw=g&amp;hvrand=15508476315288625208&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9016977&amp;hvtargid=pla-356763465823&amp;th=1" display="https://www.amazon.com/TROOPS-BBQ-Lazy-Susan-Turntable/dp/B06ZYWSKQW/ref=asc_df_B06ZYWSKQW/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=216558267793&amp;hvpos=&amp;hvnetw=g&amp;hvrand=15508476315288625208&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9016977&amp;hvtargid=pla-356763465823&amp;th=1" xr:uid="{E2867EA8-56AD-4B11-902E-83CE4F3839EF}"/>
+    <hyperlink ref="E3" r:id="rId1" tooltip="https://www.amazon.com/TROOPS-BBQ-Lazy-Susan-Turntable/dp/B06ZYWSKQW/ref=asc_df_B06ZYWSKQW/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=216558267793&amp;hvpos=&amp;hvnetw=g&amp;hvrand=15508476315288625208&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9016977&amp;hvta" display="https://www.amazon.com/TROOPS-BBQ-Lazy-Susan-Turntable/dp/B06ZYWSKQW/ref=asc_df_B06ZYWSKQW/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=216558267793&amp;hvpos=&amp;hvnetw=g&amp;hvrand=15508476315288625208&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9016977&amp;hvtargid=pla-356763465823&amp;th=1" xr:uid="{E2867EA8-56AD-4B11-902E-83CE4F3839EF}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{222A93AA-C89F-4058-ADB4-E95B1272D70D}"/>
     <hyperlink ref="E4" r:id="rId3" tooltip="https://www.amazon.com/Mount-No-Drill-Computer-Mounting-Passenger/dp/B08Z752WR1/ref=sr_1_6?crid=QE02VK4O2D21&amp;keywords=laptop+stand+car&amp;qid=1656538697&amp;sprefix=laptop+stand+car%2Caps%2C69&amp;sr=8-6&amp;ufe=app_do%3Aamzn1.fos.08f69ac3-fd3d-4b88-bca2-8997e41410bb" xr:uid="{C7391B44-093C-4A37-B093-7C1719EEBCB1}"/>
     <hyperlink ref="E5" r:id="rId4" tooltip="https://www.amazon.com/Wheel-Assembly-110cc-Coolster-Roketa/dp/B00MXXZCDW" xr:uid="{50C1865F-15A4-477B-B5A5-A43F58A777CF}"/>
@@ -1024,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D59F833-640A-43E2-B7E4-02EEC467BE79}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
